--- a/Documentation/SCRUM/BurnDown6.xlsx
+++ b/Documentation/SCRUM/BurnDown6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mick Torres\Desktop\VERSION CONTROL\Charp\Documentation\SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D2A842-2973-4903-83E4-E0E530F37DDA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CFF8F16-70A5-4236-BB1E-DA6C82DFB4D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
   <si>
     <t>Task</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>CL</t>
-  </si>
-  <si>
-    <t>Code Optimization</t>
   </si>
   <si>
     <t>Commenting code, gutting any extra junk code not used, cleaning overall code</t>
@@ -178,6 +175,12 @@
     <t>Project Title: ASP.NET Minesweeper
 Release #: 6
 Sprint #: 6</t>
+  </si>
+  <si>
+    <t>Code Optimization / Security / Logging</t>
+  </si>
+  <si>
+    <t>CL / MT</t>
   </si>
 </sst>
 </file>
@@ -396,34 +399,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>11.5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.35</c:v>
+                  <c:v>12.15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1999999999999993</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0499999999999989</c:v>
+                  <c:v>9.4500000000000011</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8999999999999986</c:v>
+                  <c:v>8.1000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7499999999999982</c:v>
+                  <c:v>6.7500000000000018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5999999999999979</c:v>
+                  <c:v>5.4000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.449999999999998</c:v>
+                  <c:v>4.0500000000000025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.299999999999998</c:v>
+                  <c:v>2.7000000000000024</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1499999999999981</c:v>
+                  <c:v>1.3500000000000023</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -469,19 +472,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>11.5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>8</c:v>
@@ -882,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +899,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1067,22 +1070,26 @@
         <v>6.3</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="F7" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4">
@@ -1101,10 +1108,10 @@
         <v>6.4</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>39</v>
@@ -1133,13 +1140,13 @@
         <v>6.5</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>46</v>
       </c>
       <c r="F9" s="4">
         <v>2.5</v>
@@ -1165,10 +1172,10 @@
         <v>6.6</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>36</v>
@@ -1263,43 +1270,43 @@
       <c r="E14" s="13"/>
       <c r="F14" s="4">
         <f>SUM(F4:F13)</f>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="G14" s="4">
         <f>F14-$F$14/10</f>
-        <v>10.35</v>
+        <v>12.15</v>
       </c>
       <c r="H14" s="4">
         <f t="shared" ref="H14:O14" si="0">G14-$F$14/10</f>
-        <v>9.1999999999999993</v>
+        <v>10.8</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="0"/>
-        <v>8.0499999999999989</v>
+        <v>9.4500000000000011</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>6.8999999999999986</v>
+        <v>8.1000000000000014</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="0"/>
-        <v>5.7499999999999982</v>
+        <v>6.7500000000000018</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>4.5999999999999979</v>
+        <v>5.4000000000000021</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="0"/>
-        <v>3.449999999999998</v>
+        <v>4.0500000000000025</v>
       </c>
       <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>2.299999999999998</v>
+        <v>2.7000000000000024</v>
       </c>
       <c r="O14" s="4">
         <f t="shared" si="0"/>
-        <v>1.1499999999999981</v>
+        <v>1.3500000000000023</v>
       </c>
       <c r="P14" s="4">
         <f>ROUND(O14-$F$14/10,1)</f>
@@ -1318,23 +1325,23 @@
       <c r="E15" s="13"/>
       <c r="F15" s="4">
         <f>SUM(F4:F13)</f>
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="G15" s="4">
         <f t="shared" ref="G15:P15" si="1">F15-SUM(G4:G13)</f>
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
@@ -1970,30 +1977,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
-  <xsnLocation/>
-  <cached>True</cached>
-  <openByDefault>False</openByDefault>
-  <xsnScope/>
-</customXsn>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Course Development" ma:contentTypeID="0x010100A30BC5E90BED914E81F4B67CDEADBEEF0072B4D5296E9CCD41A4B955E8BC4A98B900B6D41DF35BCF664B888FA24C3105B583" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new Course Development document." ma:contentTypeScope="" ma:versionID="9dd9ed6e3bbe7b4f5b00c4ab3cb49488">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="30a82cfc-8d0b-455e-b705-4035c60ff9fd" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7f302115a5f8a1b15560b600ae7cd187" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2222,6 +2205,30 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<customXsn xmlns="http://schemas.microsoft.com/office/2006/metadata/customXsn">
+  <xsnLocation/>
+  <cached>True</cached>
+  <openByDefault>False</openByDefault>
+  <xsnScope/>
+</customXsn>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2276,30 +2283,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B20B8EA-C8C4-49B1-8280-945BA6550F81}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14C1044-F523-4937-BF47-727729F19EA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26BAEAB1-84F8-4623-9116-5B777FA60CDF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2314,6 +2297,30 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D14C1044-F523-4937-BF47-727729F19EA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B20B8EA-C8C4-49B1-8280-945BA6550F81}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/customXsn"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
